--- a/fan_database/sanyo denki_sound.xlsx
+++ b/fan_database/sanyo denki_sound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoGonçaloCouto\PycharmProjects\fan_selector\fan_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F19B5-0A66-4C61-A384-805FD13EE953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476D6F3-3645-4A5F-8235-3050D3A57532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="-110" windowWidth="36410" windowHeight="21820" firstSheet="61" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="-110" windowWidth="36560" windowHeight="21820" firstSheet="63" activeTab="72" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9HV1248P1G001" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,8 @@
     <sheet name="9GA0624P1J03" sheetId="75" r:id="rId69"/>
     <sheet name="9GV0624P1G03" sheetId="76" r:id="rId70"/>
     <sheet name="9WV1224P1J601" sheetId="77" r:id="rId71"/>
+    <sheet name="9GT1224P1S001" sheetId="78" r:id="rId72"/>
+    <sheet name="9GT0924P1M001" sheetId="79" r:id="rId73"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="76">
   <si>
     <t>Model</t>
   </si>
@@ -325,6 +327,12 @@
   </si>
   <si>
     <t>9WV1224P1J601</t>
+  </si>
+  <si>
+    <t>9GT1224P1S001</t>
+  </si>
+  <si>
+    <t>9GT0924P1M001</t>
   </si>
 </sst>
 </file>
@@ -7017,6 +7025,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A8B498-E2A6-45C2-A3F5-B9FB2B276534}">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABAAAAB-3C95-4E40-8895-A6F80805FF4A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC0D2D5-3D7C-447B-8A23-E7B8BDF5E57B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -7036,24 +7140,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
